--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3226428.157186361</v>
+        <v>3330607.791637433</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101256.695209512</v>
+        <v>8101256.69520951</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>216.194700693947</v>
       </c>
       <c r="G2" t="n">
-        <v>48.02794782510797</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>176.769782112358</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>204.8429981867602</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>255.4387978729994</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.7363964403885</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>120.73899958301</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>122.3938404081663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>131.6045095424842</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>125.0816591241466</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>121.3068766295136</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>186.59783505537</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>133.841005253798</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012156</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>141.9101287729429</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>159.9541141389045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.8674042714179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>159.6155901915576</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>124.8808320771206</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>190.5819130177799</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.5188249813913</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>23.41986852521065</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>3.81413045527012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>154.5586518047165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.85665993310082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>102.9012384238816</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>5.421623586788386</v>
+        <v>66.24118421664592</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4817021252623</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>113.4862783316174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>106.3434154283417</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>232.630063128001</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>37.58623250008735</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>7.155999212081841</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C2" t="n">
-        <v>926.2736972002929</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D2" t="n">
-        <v>568.0079985935424</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E2" t="n">
-        <v>568.0079985935424</v>
+        <v>741.9599508971596</v>
       </c>
       <c r="F2" t="n">
-        <v>157.0220938039349</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
         <v>108.5090151927147</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204826</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4400,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1748.739212621464</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1748.739212621464</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1748.739212621464</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1494.054724415577</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W4" t="n">
-        <v>1494.054724415577</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.5785797246257</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>360.6423967967187</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1805.335962651109</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1550.651474445222</v>
       </c>
       <c r="W7" t="n">
-        <v>978.3607097661732</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>750.3711588681558</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>529.5785797246257</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.1025618495183</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>752.1025618495183</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>601.9859224371826</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>454.0728288547895</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>454.0728288547895</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>286.3699922295084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.740577577775</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X10" t="n">
-        <v>933.7510266797581</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.7510266797581</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>562.8579153358626</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5772922261151</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6411092982083</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>665.5244698858728</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>517.6113763034798</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>370.7214288055696</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304623</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369645</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261151</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>607.8487094728846</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>460.9587619749742</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1272.131553387299</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462336</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318806</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5783,16 +5785,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784064</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504995</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381638</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578603</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1851.318825887154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>951.7772127656161</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6062,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6184,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1410.044932795071</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,19 +6311,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>612.4182386381636</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>553.4671980143296</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>406.5772505164192</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>239.3811512312992</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>97.66932007349723</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1532.266003546912</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1242.848833509951</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1014.859282611934</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>794.0667034684034</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6452,46 +6454,46 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>3342.537229081859</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2985.713220456422</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2985.713220456422</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430192</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3167.361685286662</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944943</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F37" t="n">
-        <v>266.4891497944943</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G37" t="n">
-        <v>99.29305050937427</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="H37" t="n">
-        <v>99.29305050937427</v>
+        <v>160.726950135493</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3168.568054801517</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>2999.63187187361</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>2849.515232461274</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>2701.602138878881</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>2701.602138878881</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>2534.406039593761</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673936</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018134</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812247</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775286</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3571.009098775286</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>3350.216519631756</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.5582272005026</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>342.9460855475331</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1453.405992109251</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.98882207229</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>935.9992711742725</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.2066920307424</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="44">
@@ -7637,61 +7639,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273899</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3044.37083828306</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C46" t="n">
-        <v>3006.40494686883</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456494</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874101</v>
+        <v>492.0395788753862</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053496</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4507.978318053496</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4218.903091397694</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3964.218603191807</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3674.801433154847</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3446.811882256829</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y46" t="n">
-        <v>3226.019303113299</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.68313303847074</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>23.61400951932598</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>126.5688841976865</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.37941682720998</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>126.5688841976865</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>161.3036423121236</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>35.12774237125728</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.31315520054596</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>263.1031298113804</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>77.45170586329542</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>97.57899151911153</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.727993418994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>45.71423459433078</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>75.84421273177715</v>
+        <v>15.02465210191961</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>26.8084345146065</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>59.18072286392712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>19.50758019582705</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>129.6605885985405</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.2650488108494</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="8">
@@ -26314,7 +26316,7 @@
         <v>738937.5928778553</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778551</v>
@@ -26323,7 +26325,7 @@
         <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
@@ -26332,28 +26334,28 @@
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.291053439883838e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181828</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26439,19 +26441,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483642996</v>
+        <v>-789315.0483643</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632924</v>
+        <v>539429.6973632933</v>
       </c>
       <c r="D6" t="n">
-        <v>539429.6973632923</v>
+        <v>539429.6973632921</v>
       </c>
       <c r="E6" t="n">
-        <v>287510.0279079252</v>
+        <v>287510.0279079251</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152801</v>
+        <v>612922.4897152804</v>
       </c>
       <c r="G6" t="n">
         <v>612922.4897152801</v>
@@ -26540,28 +26542,28 @@
         <v>612922.4897152802</v>
       </c>
       <c r="I6" t="n">
+        <v>612922.48971528</v>
+      </c>
+      <c r="J6" t="n">
+        <v>395391.2873180027</v>
+      </c>
+      <c r="K6" t="n">
+        <v>612922.4897152802</v>
+      </c>
+      <c r="L6" t="n">
+        <v>612922.4897152802</v>
+      </c>
+      <c r="M6" t="n">
+        <v>527867.4617797685</v>
+      </c>
+      <c r="N6" t="n">
+        <v>612922.4897152801</v>
+      </c>
+      <c r="O6" t="n">
+        <v>612922.48971528</v>
+      </c>
+      <c r="P6" t="n">
         <v>612922.4897152799</v>
-      </c>
-      <c r="J6" t="n">
-        <v>395391.2873180028</v>
-      </c>
-      <c r="K6" t="n">
-        <v>612922.4897152804</v>
-      </c>
-      <c r="L6" t="n">
-        <v>612922.4897152801</v>
-      </c>
-      <c r="M6" t="n">
-        <v>527867.4617797683</v>
-      </c>
-      <c r="N6" t="n">
-        <v>612922.4897152804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>612922.4897152801</v>
-      </c>
-      <c r="P6" t="n">
-        <v>612922.4897152804</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,13 +26810,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.113816799854798e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>190.6813450477645</v>
       </c>
       <c r="G2" t="n">
-        <v>362.8937778283455</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>12.99924321908392</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>93.80217084441358</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>257.501542215665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>165.4728386226029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>164.1291579284247</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>223.0785320781987</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>261.156279531907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>23.44813828480717</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>32.95111422079921</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29284,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.151041806110126e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>458.6770173132165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32494,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>403.3065760821439</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32788,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N24" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33029,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>302.5540177178169</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.1088399635148</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33436,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33497,28 +33499,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>237.3557891543625</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673337</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N45" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>320.8355783388575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N24" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>171.2123056344836</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>94.75954470991805</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531539</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N45" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3330607.791637433</v>
+        <v>3326595.18162344</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101256.69520951</v>
+        <v>8101256.695209512</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.80199454068585</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>216.194700693947</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>204.8429981867602</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222602</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>255.4387978729994</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>120.73899958301</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>142.3844270995955</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>131.6045095424842</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>63.63509288679619</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>186.59783505537</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>63.10873435712737</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695442</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.9101287729429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>159.6155901915576</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>190.5819130177799</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>23.41986852521065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>3.81413045527012</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>66.24118421664592</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.4817021252623</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>106.3434154283417</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.155999212081841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>198.9788630744784</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495404</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495404</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.748203495404</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>741.9599508971596</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1431.27956183357</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1141.86239179661</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>913.8728408985925</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490658</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.318417769983</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1805.335962651109</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.651474445222</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1261.234304408261</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.244753510244</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.08481855127</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>141.8220341496073</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>130.7899880350079</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1547.126002243228</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1547.126002243228</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1547.126002243228</v>
+        <v>1863.548351768162</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.708832206268</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5196,16 +5196,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,13 +5223,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.6979859831846</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>607.8487094728846</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>460.9587619749742</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1816.233211630147</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.54872342426</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.131553387299</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656161</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253735</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>951.7772127656161</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.7772127656161</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1410.044932795071</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.055381897054</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.2628027535235</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>553.4671980143296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>406.5772505164192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3811512312992</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>97.66932007349723</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3584617859342</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2418223735984</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3287287912053</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4387812932949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>302.4387812932949</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>160.726950135493</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8164599824514</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>808.8888553856862</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>639.9526724577793</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>489.8360330454435</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>489.8360330454435</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>342.9460855475331</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856862</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577793</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D46" t="n">
-        <v>639.9526724577793</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E46" t="n">
-        <v>492.0395788753862</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>23.61400951932598</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>126.5688841976865</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.12774237125728</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>77.45170586329542</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>15.02465210191961</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.35027805667497</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.18072286392712</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>138.2650488108494</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>19.60579027761636</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717394</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778558</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778558</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210057</v>
-      </c>
       <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.291053439883838e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181821</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483643</v>
+        <v>-789315.0483642996</v>
       </c>
       <c r="C6" t="n">
-        <v>539429.6973632933</v>
+        <v>539429.6973632926</v>
       </c>
       <c r="D6" t="n">
-        <v>539429.6973632921</v>
+        <v>539429.6973632928</v>
       </c>
       <c r="E6" t="n">
-        <v>287510.0279079251</v>
+        <v>287162.6486535685</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152804</v>
+        <v>612575.1104609227</v>
       </c>
       <c r="G6" t="n">
-        <v>612922.4897152801</v>
+        <v>612575.1104609232</v>
       </c>
       <c r="H6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609234</v>
       </c>
       <c r="I6" t="n">
-        <v>612922.48971528</v>
+        <v>612575.1104609232</v>
       </c>
       <c r="J6" t="n">
-        <v>395391.2873180027</v>
+        <v>395043.9080636455</v>
       </c>
       <c r="K6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609232</v>
       </c>
       <c r="L6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609234</v>
       </c>
       <c r="M6" t="n">
-        <v>527867.4617797685</v>
+        <v>527520.0825254113</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.4897152801</v>
+        <v>612575.1104609233</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.48971528</v>
+        <v>612575.1104609234</v>
       </c>
       <c r="P6" t="n">
-        <v>612922.4897152799</v>
+        <v>612575.1104609235</v>
       </c>
     </row>
   </sheetData>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.113816799854798e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>345.9318471227947</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>190.6813450477645</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>47.29464513706782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.8774149194513</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>93.80217084441358</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>165.4728386226029</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>83.3252282894417</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>223.0785320781987</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>230.9726715005243</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>32.95111422079921</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.0289089667006</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.151041806110126e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32575,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244908</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36223,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3326595.18162344</v>
+        <v>3328355.711926225</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8101256.695209512</v>
+        <v>8101256.69520951</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.80199454068585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>57.86367905270173</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>297.9986308222602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>120.608807415962</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>63.63509288679619</v>
+        <v>63.63509288679707</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>63.10873435712737</v>
+        <v>63.10873435712782</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695442</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576175</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>22.44547853568606</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194068</v>
       </c>
       <c r="F19" t="n">
-        <v>70.04554881124324</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>102.1557845699814</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.9788630744784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2106.031998942027</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1737.069482001615</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1378.803783394865</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>993.0155307966204</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>582.0296260070129</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>166.9571758520094</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,16 +4330,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533244</v>
+        <v>2492.631839006149</v>
       </c>
     </row>
     <row r="3">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473101</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490658</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4722,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="D8" t="n">
-        <v>552.8079389392149</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="E8" t="n">
-        <v>552.8079389392149</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="F8" t="n">
-        <v>141.8220341496073</v>
+        <v>141.8220341496082</v>
       </c>
       <c r="G8" t="n">
-        <v>130.7899880350079</v>
+        <v>130.7899880350088</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4959,22 +4959,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245714</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,22 +5272,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,25 +5299,25 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372932</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C19" t="n">
-        <v>853.5941094450255</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D19" t="n">
-        <v>703.4774700326898</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5643764502967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203172</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,28 +5910,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2437.724555511392</v>
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,28 +6147,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6363,49 +6363,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,37 +6858,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>241.7297566303649</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797183</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797183</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>154.6822255254121</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>264.077519800905</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.6938862346285</v>
       </c>
       <c r="F19" t="n">
-        <v>75.37549921168801</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.45968844823096</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.60579027761636</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717394</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26444,7 +26444,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-789315.0483642996</v>
+        <v>-789315.0483642998</v>
       </c>
       <c r="C6" t="n">
+        <v>539429.6973632928</v>
+      </c>
+      <c r="D6" t="n">
         <v>539429.6973632926</v>
       </c>
-      <c r="D6" t="n">
-        <v>539429.6973632928</v>
-      </c>
       <c r="E6" t="n">
-        <v>287162.6486535685</v>
+        <v>287475.2899824892</v>
       </c>
       <c r="F6" t="n">
-        <v>612575.1104609227</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="G6" t="n">
-        <v>612575.1104609232</v>
+        <v>612887.7517898441</v>
       </c>
       <c r="H6" t="n">
-        <v>612575.1104609234</v>
+        <v>612887.7517898445</v>
       </c>
       <c r="I6" t="n">
-        <v>612575.1104609232</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="J6" t="n">
-        <v>395043.9080636455</v>
+        <v>395356.5493925668</v>
       </c>
       <c r="K6" t="n">
-        <v>612575.1104609232</v>
+        <v>612887.7517898441</v>
       </c>
       <c r="L6" t="n">
-        <v>612575.1104609234</v>
+        <v>612887.7517898445</v>
       </c>
       <c r="M6" t="n">
-        <v>527520.0825254113</v>
+        <v>527832.7238543327</v>
       </c>
       <c r="N6" t="n">
-        <v>612575.1104609233</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="O6" t="n">
-        <v>612575.1104609234</v>
+        <v>612887.7517898445</v>
       </c>
       <c r="P6" t="n">
-        <v>612575.1104609235</v>
+        <v>612887.7517898447</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,19 +26792,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.9318471227947</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>236.7440853346187</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8774149194513</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>290.3129182374915</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27675,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>230.9726715005243</v>
+        <v>230.9726715005234</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>189.0289089667006</v>
+        <v>189.0289089667002</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.414636683656336e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-5.871232860595138e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543365</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>228.3420541567482</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997754</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>97.00034207341486</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
